--- a/data/NLmatrices4x4Images.xlsx
+++ b/data/NLmatrices4x4Images.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CharlieBoi/Documents/Uni shit/AI/Master/Year 1/Design of MultiAgent Systems/Project/A05-MAS-virus-spreading/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DB03FD-953D-0541-A314-808AA11D18E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE5E86-8EFC-1B4E-B3B7-EEBE7209F7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="-23020" windowWidth="21080" windowHeight="22060" xr2:uid="{73DE3FF3-E5E1-F041-99F1-7A2D2A3ABA56}"/>
   </bookViews>
   <sheets>
     <sheet name="NL_all_locations" sheetId="1" r:id="rId1"/>
-    <sheet name="NL_home" sheetId="2" r:id="rId2"/>
-    <sheet name="NL_work" sheetId="3" r:id="rId3"/>
-    <sheet name="NL_school" sheetId="5" r:id="rId4"/>
-    <sheet name="NL_other" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="NL_home" sheetId="2" r:id="rId3"/>
+    <sheet name="NL_work" sheetId="3" r:id="rId4"/>
+    <sheet name="NL_school" sheetId="5" r:id="rId5"/>
+    <sheet name="NL_other" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +29,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Young Adult</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -38,24 +74,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -63,16 +103,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,78 +494,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B741D8F4-8EEE-D243-AE73-B840CDDE9A6A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="1" style="20" customWidth="1"/>
+    <col min="9" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="1">
         <v>2.9406420226951004</v>
       </c>
-      <c r="B1" s="1">
+      <c r="D2" s="1">
         <v>0.64457193241738908</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E2" s="1">
         <v>0.5785071253908558</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F2" s="1">
         <v>6.9653157449292125E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="1">
         <v>0.88004513520449912</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D3" s="1">
         <v>2.295830212313501</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E3" s="1">
         <v>1.5172101883516149</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F3" s="1">
         <v>5.2586065098200706E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="1">
         <v>0.43562759680533897</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D4" s="1">
         <v>1.2512054905021617</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E4" s="1">
         <v>1.9881681295588598</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F4" s="1">
         <v>0.17507514070309368</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1">
         <v>8.5944068634692491E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D5" s="1">
         <v>0.2513091001824021</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E5" s="1">
         <v>0.4514250700558991</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F5" s="1">
         <v>0.62366606973343708</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="2"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D4">
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:F5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -474,76 +645,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1B34A-8DD8-2140-A75D-43FC91B2E0C6}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DB8EB5-658C-2B40-A16B-77B2851275F0}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="4" width="7.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0.35029967343765633</v>
-      </c>
-      <c r="B1" s="1">
-        <v>7.5889414809687347E-2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.28169342176616013</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1.501776384171387E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0.16430404323889478</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.27564155333482787</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.9910779919794648E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.0673633074418964E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.2430914243993767</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.7703995581484391E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.22421295522822288</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.3260354271418126E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1.8866608470118455E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.0923439300670185E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.7997639368043238E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.19220746928291652</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D4">
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:F5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -559,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6A5EA4-2249-3C48-81F3-2208DFA8A2B9}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1B34A-8DD8-2140-A75D-43FC91B2E0C6}">
+  <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,64 +749,156 @@
     <col min="1" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>7.6432005643256862E-2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.12907261355999697</v>
-      </c>
-      <c r="C1" s="1">
-        <v>7.4955349215121772E-2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3.6558829836710808E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.11625350768427732</v>
+        <v>0.35029967343765633</v>
       </c>
       <c r="B2" s="1">
-        <v>0.91006658660489514</v>
+        <v>7.5889414809687347E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.62839013613701467</v>
+        <v>0.28169342176616013</v>
       </c>
       <c r="D2" s="1">
-        <v>4.7646892601726908E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.501776384171387E-3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.11386005669731465</v>
+        <v>0.16430404323889478</v>
       </c>
       <c r="B3" s="1">
-        <v>0.6693050856953866</v>
+        <v>0.27564155333482787</v>
       </c>
       <c r="C3" s="1">
-        <v>0.85918406175077033</v>
+        <v>9.9910779919794648E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>4.9801439662324719E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0673633074418964E-3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1">
+        <v>2.9406420226951004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.64457193241738908</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.5785071253908558</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6.9653157449292125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1.9044838783457748E-2</v>
+        <v>0.2430914243993767</v>
       </c>
       <c r="B4" s="1">
-        <v>0.10703488026344399</v>
+        <v>6.7703995581484391E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15448702727996816</v>
+        <v>0.22421295522822288</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2967667184389879E-2</v>
-      </c>
+        <v>1.3260354271418126E-2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1">
+        <v>0.88004513520449912</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.295830212313501</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.5172101883516149</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.2586065098200706E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.8866608470118455E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0923439300670185E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.7997639368043238E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.19220746928291652</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1">
+        <v>0.43562759680533897</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.2512054905021617</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.9881681295588598</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.17507514070309368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1">
+        <v>8.5944068634692491E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.2513091001824021</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.4514250700558991</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.62366606973343708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D4">
+  <mergeCells count="1">
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:D5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:M6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -644,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F77A10-0449-D044-A7FD-D2D6515790FE}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6A5EA4-2249-3C48-81F3-2208DFA8A2B9}">
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,64 +926,64 @@
     <col min="1" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1.4302826525707557</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.431443602300733E-2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1.44919557645101E-2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>7.6798710271305554E-4</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3.1067619287187303E-2</v>
+        <v>7.6432005643256862E-2</v>
       </c>
       <c r="B2" s="1">
-        <v>4.5997919485163824E-2</v>
+        <v>0.12907261355999697</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0938589749065602E-2</v>
+        <v>7.4955349215121772E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0627995183147927E-3</v>
+        <v>3.6558829836710808E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>6.031902411902644E-2</v>
+        <v>0.11625350768427732</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2700381795685299E-2</v>
+        <v>0.91006658660489514</v>
       </c>
       <c r="C3" s="1">
-        <v>1.6944513593083497E-2</v>
+        <v>0.62839013613701467</v>
       </c>
       <c r="D3" s="1">
-        <v>1.1791595778839867E-3</v>
+        <v>4.7646892601726908E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1.4076086413425453E-2</v>
+        <v>0.11386005669731465</v>
       </c>
       <c r="B4" s="1">
-        <v>3.5673585302648456E-3</v>
+        <v>0.6693050856953866</v>
       </c>
       <c r="C4" s="1">
-        <v>9.4427918001980665E-3</v>
+        <v>0.85918406175077033</v>
       </c>
       <c r="D4" s="1">
-        <v>6.9181771703194887E-3</v>
+        <v>4.9801439662324719E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.9044838783457748E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.10703488026344399</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.15448702727996816</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2967667184389879E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D4">
+  <conditionalFormatting sqref="A2:D5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -729,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0B6BA-78BF-2F41-A9A4-CFC09357B8C4}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F77A10-0449-D044-A7FD-D2D6515790FE}">
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,64 +1011,149 @@
     <col min="1" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>2.9557537374133154</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.69272503834789179</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.2649970174936836</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4.4912700976510546E-2</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.49548324736443233</v>
+        <v>1.4302826525707557</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0603229769835565</v>
+        <v>1.431443602300733E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1676935208030641</v>
+        <v>1.44919557645101E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>1.4723115651014385E-2</v>
+        <v>7.6798710271305554E-4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.13064881428596603</v>
+        <v>3.1067619287187303E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.19043959697497531</v>
+        <v>4.5997919485163824E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>9.6863832762733026E-2</v>
+        <v>1.0938589749065602E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.364540436160111E-2</v>
+        <v>1.0627995183147927E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>6.031902411902644E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.2700381795685299E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6944513593083497E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1791595778839867E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.4076086413425453E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.5673585302648456E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.4427918001980665E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.9181771703194887E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:D5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0B6BA-78BF-2F41-A9A4-CFC09357B8C4}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2.9557537374133154</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.69272503834789179</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.2649970174936836</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.4912700976510546E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.49548324736443233</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0603229769835565</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1676935208030641</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4723115651014385E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.13064881428596603</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.19043959697497531</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.6863832762733026E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.364540436160111E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3.16852974899198E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>5.5073545662416235E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>3.3372787031313425E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>1.5002972335513835E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D4">
+  <conditionalFormatting sqref="A2:D5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
